--- a/experiment/linear/ex9_1_9/compare/C-Estacionario/ex9_1_9_C-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_9/compare/C-Estacionario/ex9_1_9_C-Estacionario.xlsx
@@ -482,13 +482,13 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.0002493</v>
+        <v>0.0001998</v>
       </c>
       <c r="F2">
-        <v>0.01790559</v>
+        <v>0.01541187</v>
       </c>
       <c r="G2">
-        <v>0.00042970176</v>
+        <v>0.000375365664</v>
       </c>
       <c r="H2">
         <v>1836</v>
@@ -517,13 +517,13 @@
         <v>-385.78654678578766</v>
       </c>
       <c r="E3">
-        <v>0.00531819</v>
+        <v>0.00415737</v>
       </c>
       <c r="F3">
-        <v>0.01522674</v>
+        <v>0.00930933</v>
       </c>
       <c r="G3">
-        <v>0.006335906230964467</v>
+        <v>0.004853213702623906</v>
       </c>
       <c r="H3">
         <v>4512</v>

--- a/experiment/linear/ex9_1_9/compare/C-Estacionario/ex9_1_9_C-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_9/compare/C-Estacionario/ex9_1_9_C-Estacionario.xlsx
@@ -482,13 +482,13 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.0001998</v>
+        <v>0.000295941</v>
       </c>
       <c r="F2">
-        <v>0.01541187</v>
+        <v>0.022672494</v>
       </c>
       <c r="G2">
-        <v>0.000375365664</v>
+        <v>0.0005221321025021026</v>
       </c>
       <c r="H2">
         <v>1836</v>
@@ -517,13 +517,13 @@
         <v>-385.78654678578766</v>
       </c>
       <c r="E3">
-        <v>0.00415737</v>
+        <v>0.004604507</v>
       </c>
       <c r="F3">
-        <v>0.00930933</v>
+        <v>0.009885973</v>
       </c>
       <c r="G3">
-        <v>0.004853213702623906</v>
+        <v>0.005467831646608316</v>
       </c>
       <c r="H3">
         <v>4512</v>
